--- a/ChuangfengDesktop/singleareashare.xlsx
+++ b/ChuangfengDesktop/singleareashare.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
@@ -11,13 +11,39 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>X区X月份单塘分摊表</t>
+  </si>
+  <si>
+    <t>单位：元</t>
+  </si>
+  <si>
+    <t>塘号</t>
+  </si>
+  <si>
+    <t>饲料</t>
+  </si>
+  <si>
+    <t>药品</t>
+  </si>
+  <si>
+    <t>消毒</t>
+  </si>
+  <si>
+    <t>合计</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33,6 +59,32 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -42,7 +94,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -50,15 +102,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -75,7 +160,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -149,7 +234,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -184,7 +268,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -360,14 +443,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="2" max="4" width="14.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" ht="18.75">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -375,27 +528,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
